--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/36.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/36.xlsx
@@ -479,13 +479,13 @@
         <v>-8.320106430511768</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.5141045503555</v>
+        <v>-17.58558671975666</v>
       </c>
       <c r="F2" t="n">
-        <v>2.506334568599412</v>
+        <v>2.467525632089841</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.025458819523347</v>
+        <v>-8.892389830619656</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.72760496484795</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.98798131894496</v>
+        <v>-18.07192067784302</v>
       </c>
       <c r="F3" t="n">
-        <v>2.380853318353173</v>
+        <v>2.334437087158682</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.967005853422512</v>
+        <v>-8.831810146531714</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.11854047047417</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.41492851061891</v>
+        <v>-18.49788517913672</v>
       </c>
       <c r="F4" t="n">
-        <v>2.569011636633261</v>
+        <v>2.546380423846312</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.959017216201973</v>
+        <v>-8.821337893822781</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.569286137840711</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.99402159599125</v>
+        <v>-19.10408291857924</v>
       </c>
       <c r="F5" t="n">
-        <v>2.930015903686261</v>
+        <v>2.883692563622242</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.775107444889233</v>
+        <v>-8.677019300118319</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.067547439914067</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.50408190440276</v>
+        <v>-19.59895797166211</v>
       </c>
       <c r="F6" t="n">
-        <v>3.042903072243328</v>
+        <v>2.991177379591367</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.458314466933746</v>
+        <v>-8.326374838616312</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.633182928531627</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.15337623937713</v>
+        <v>-20.24182326260649</v>
       </c>
       <c r="F7" t="n">
-        <v>3.190995979249048</v>
+        <v>3.149522533997009</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.23056497104538</v>
+        <v>-8.117428463138101</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.261578021731333</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.73527072568421</v>
+        <v>-20.82460265915648</v>
       </c>
       <c r="F8" t="n">
-        <v>3.383740185970303</v>
+        <v>3.338551095499408</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.044895157260552</v>
+        <v>-7.922342422127594</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.955394600611401</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.18434556243782</v>
+        <v>-21.27646422982423</v>
       </c>
       <c r="F9" t="n">
-        <v>3.632678637619879</v>
+        <v>3.57375632685982</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.330779833803403</v>
+        <v>-8.217760662060929</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.705934123969202</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.82088936750328</v>
+        <v>-21.89079238768643</v>
       </c>
       <c r="F10" t="n">
-        <v>3.982017734288419</v>
+        <v>3.924234562128351</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.999006938807687</v>
+        <v>-7.91550270152078</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.501586222964039</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.71287889235818</v>
+        <v>-22.78458106706835</v>
       </c>
       <c r="F11" t="n">
-        <v>4.14232826945456</v>
+        <v>4.081738807352884</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.662310813896989</v>
+        <v>-7.56237462453038</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.331017854223495</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.52329044863173</v>
+        <v>-23.57972425489653</v>
       </c>
       <c r="F12" t="n">
-        <v>4.588435479039949</v>
+        <v>4.519935603827603</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.20156102874519</v>
+        <v>-7.099747460741686</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.174226702019891</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.10133728653456</v>
+        <v>-24.16467437049544</v>
       </c>
       <c r="F13" t="n">
-        <v>5.391977980665489</v>
+        <v>5.326959078342386</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.931829630890626</v>
+        <v>-6.848095610280973</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.022552905766617</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.24658225610251</v>
+        <v>-25.29892396361971</v>
       </c>
       <c r="F14" t="n">
-        <v>5.634951843937428</v>
+        <v>5.556453949682242</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.304389156611362</v>
+        <v>-6.256227549965383</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.859227574545437</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.70246747942173</v>
+        <v>-25.76272937806333</v>
       </c>
       <c r="F15" t="n">
-        <v>5.963771778785526</v>
+        <v>5.887459270599851</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.872753407352042</v>
+        <v>-5.819883687093224</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.676768320365627</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.72560461348163</v>
+        <v>-26.81016487625179</v>
       </c>
       <c r="F16" t="n">
-        <v>6.270620516773709</v>
+        <v>6.201225953304719</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.577877847180933</v>
+        <v>-5.520441794508417</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.469969989960266</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.71937348329196</v>
+        <v>-27.78947206374978</v>
       </c>
       <c r="F17" t="n">
-        <v>6.626882447165801</v>
+        <v>6.551440182202437</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.225140890739887</v>
+        <v>-5.149253726151633</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.240102152503995</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.26688602880746</v>
+        <v>-28.33622681320092</v>
       </c>
       <c r="F18" t="n">
-        <v>7.020921733618546</v>
+        <v>6.951057825490331</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.049508208052835</v>
+        <v>-4.993753973742536</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.996863549352596</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.24786770115738</v>
+        <v>-29.31827184454439</v>
       </c>
       <c r="F19" t="n">
-        <v>7.163172277418303</v>
+        <v>7.081882760242108</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.798760823862501</v>
+        <v>-4.733966815855276</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.751240957861555</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.79488156797246</v>
+        <v>-29.86129383725264</v>
       </c>
       <c r="F20" t="n">
-        <v>7.361313947720632</v>
+        <v>7.281070678013957</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.706026141610858</v>
+        <v>-4.642845505869716</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.522254763544323</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.57960628216724</v>
+        <v>-30.65847329644089</v>
       </c>
       <c r="F21" t="n">
-        <v>7.676557110499308</v>
+        <v>7.604028693628624</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.617984905951453</v>
+        <v>-4.552149539481577</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.325366861868035</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.80326123480457</v>
+        <v>-30.87769636435335</v>
       </c>
       <c r="F22" t="n">
-        <v>7.630928009410391</v>
+        <v>7.563899725264987</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.756070015900599</v>
+        <v>-4.680212185353547</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.177060921389647</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.28217856947382</v>
+        <v>-31.36151492840669</v>
       </c>
       <c r="F23" t="n">
-        <v>7.718773684795118</v>
+        <v>7.644054992848058</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.437512106466155</v>
+        <v>-4.370009588654661</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.09124452314935</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.3649861232822</v>
+        <v>-31.44398514074124</v>
       </c>
       <c r="F24" t="n">
-        <v>8.020136957078623</v>
+        <v>7.956746094042203</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.618092464102525</v>
+        <v>-4.550580168277297</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.075292901307111</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.50834647164074</v>
+        <v>-31.59082646198903</v>
       </c>
       <c r="F25" t="n">
-        <v>7.967687691410359</v>
+        <v>7.91244191381422</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.490034707237422</v>
+        <v>-4.416792495364169</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.135579890422998</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.44486271747385</v>
+        <v>-31.52225814068055</v>
       </c>
       <c r="F26" t="n">
-        <v>7.609470158271501</v>
+        <v>7.540461826344997</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.514152178111914</v>
+        <v>-4.436803200470452</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.26994075723361</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.6046476844018</v>
+        <v>-31.65991546252884</v>
       </c>
       <c r="F27" t="n">
-        <v>7.675237078645241</v>
+        <v>7.622294023283419</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.203402012643933</v>
+        <v>-4.129343336623905</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.473945139025981</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.27281612132368</v>
+        <v>-31.32594495894645</v>
       </c>
       <c r="F28" t="n">
-        <v>7.636521033266141</v>
+        <v>7.59226085409996</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.372502982156787</v>
+        <v>-4.270572077988477</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.735668382272794</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.08503425657235</v>
+        <v>-31.12974177986685</v>
       </c>
       <c r="F29" t="n">
-        <v>7.317757785543287</v>
+        <v>7.281236904247432</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.15301101886664</v>
+        <v>-4.067996078457856</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.039461921124616</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.2823521292176</v>
+        <v>-31.334226936579</v>
       </c>
       <c r="F30" t="n">
-        <v>7.019728815943019</v>
+        <v>6.97571797612705</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.31242197676927</v>
+        <v>-4.233860525424813</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.368524882128605</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.92341591206931</v>
+        <v>-30.9712426217449</v>
       </c>
       <c r="F31" t="n">
-        <v>6.998011847440182</v>
+        <v>6.967973789249856</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.21738457228331</v>
+        <v>-4.130546032313166</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.700741565343622</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.85146684251235</v>
+        <v>-30.87583365273705</v>
       </c>
       <c r="F32" t="n">
-        <v>6.796281646097538</v>
+        <v>6.763119512519253</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.327421449836964</v>
+        <v>-4.230203548288361</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.019014246185963</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.3404385107412</v>
+        <v>-30.34601197856948</v>
       </c>
       <c r="F33" t="n">
-        <v>6.808988174944649</v>
+        <v>6.780949720562893</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.067595179894769</v>
+        <v>-3.975114726000206</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.3026012920844</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98510793615726</v>
+        <v>-29.98718331957226</v>
       </c>
       <c r="F34" t="n">
-        <v>6.760005215145029</v>
+        <v>6.729228916917799</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.090891297615619</v>
+        <v>-4.000209998248081</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.535795591727652</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.57532604759304</v>
+        <v>-29.58440493334491</v>
       </c>
       <c r="F35" t="n">
-        <v>6.811877578002997</v>
+        <v>6.788483680144808</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.120963578854013</v>
+        <v>-4.007577731596522</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.704494977941422</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.2469925689282</v>
+        <v>-29.26367141585468</v>
       </c>
       <c r="F36" t="n">
-        <v>6.811466901426176</v>
+        <v>6.807340579630499</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.287786271166885</v>
+        <v>-4.162564138284592</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.800464437545655</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.09689761361048</v>
+        <v>-29.08553311714834</v>
       </c>
       <c r="F37" t="n">
-        <v>6.949913797883473</v>
+        <v>6.922892256930034</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.213062690212957</v>
+        <v>-4.112266035637771</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.82140665832573</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.39677716324766</v>
+        <v>-28.38850985263571</v>
       </c>
       <c r="F38" t="n">
-        <v>6.684929625696682</v>
+        <v>6.681077088285554</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.204756267546069</v>
+        <v>-4.093697587557228</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.769188171781832</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.89738955682663</v>
+        <v>-27.91161167780249</v>
       </c>
       <c r="F39" t="n">
-        <v>6.626633107815589</v>
+        <v>6.612161647489521</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.25099649449335</v>
+        <v>-4.151651874957638</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.653075009717545</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.52189182891666</v>
+        <v>-27.52070624475144</v>
       </c>
       <c r="F40" t="n">
-        <v>6.698330393518897</v>
+        <v>6.670756394789496</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.114094524205997</v>
+        <v>-4.014529899361275</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.4839047930096</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.2863174775378</v>
+        <v>-27.29233340048754</v>
       </c>
       <c r="F41" t="n">
-        <v>6.517794036944328</v>
+        <v>6.490933833217498</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.514034841947108</v>
+        <v>-4.417276507043994</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.278132965725567</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.64624869852129</v>
+        <v>-26.64649803787151</v>
       </c>
       <c r="F42" t="n">
-        <v>6.414391541709077</v>
+        <v>6.381933425119628</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.290465446929955</v>
+        <v>-4.192069294726424</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.05076544861676</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.24210627937807</v>
+        <v>-26.23592168569142</v>
       </c>
       <c r="F43" t="n">
-        <v>6.366757947804725</v>
+        <v>6.333405142958631</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.307865422369304</v>
+        <v>-4.212163112949445</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.82004816781983</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.55889201476104</v>
+        <v>-25.56949627065538</v>
       </c>
       <c r="F44" t="n">
-        <v>6.488684890058717</v>
+        <v>6.45330803636972</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.427792760814728</v>
+        <v>-4.328379695182879</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.599399520890961</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.00505553886318</v>
+        <v>-24.99871449695679</v>
       </c>
       <c r="F45" t="n">
-        <v>6.536914942800832</v>
+        <v>6.497436212350494</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.54032303187051</v>
+        <v>-4.431332401786374</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.402291024954659</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.56156883695846</v>
+        <v>-24.56613028036529</v>
       </c>
       <c r="F46" t="n">
-        <v>6.390342516930723</v>
+        <v>6.345192538514763</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.521925699030309</v>
+        <v>-4.424830022653378</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.236701665019867</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.46879993165875</v>
+        <v>-24.46499628431629</v>
       </c>
       <c r="F47" t="n">
-        <v>6.576085665818555</v>
+        <v>6.533917981591414</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.582119151575766</v>
+        <v>-4.464538536426461</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.106324539840095</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.98192818281703</v>
+        <v>-24.00404604988295</v>
       </c>
       <c r="F48" t="n">
-        <v>6.538875434554465</v>
+        <v>6.488640888996914</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.614777717446757</v>
+        <v>-4.491672524537839</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.013121216364273</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.21137669952943</v>
+        <v>-23.22059247747356</v>
       </c>
       <c r="F49" t="n">
-        <v>6.727444429411375</v>
+        <v>6.700642893766948</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.795441188199866</v>
+        <v>-4.677112554999923</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.953394088154226</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.06433492900009</v>
+        <v>-23.09094579337671</v>
       </c>
       <c r="F50" t="n">
-        <v>6.535594910946766</v>
+        <v>6.492498315414911</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.87199325772202</v>
+        <v>-4.750418323962446</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.925346769513377</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.50732059863874</v>
+        <v>-22.51729417264724</v>
       </c>
       <c r="F51" t="n">
-        <v>6.642375709927055</v>
+        <v>6.617881785523811</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.685981213456507</v>
+        <v>-4.566503663642839</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.92208285521723</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.96147275996142</v>
+        <v>-21.98433375607111</v>
       </c>
       <c r="F52" t="n">
-        <v>6.540219911442867</v>
+        <v>6.495725059947074</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.848012679039802</v>
+        <v>-4.722766101123175</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.940900207001752</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.52904499158966</v>
+        <v>-21.56564409699538</v>
       </c>
       <c r="F53" t="n">
-        <v>6.910723518838283</v>
+        <v>6.884190878571535</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.872917280019866</v>
+        <v>-4.746472895420845</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.977584284239801</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.85834658455193</v>
+        <v>-20.87188913357329</v>
       </c>
       <c r="F54" t="n">
-        <v>6.925302537315423</v>
+        <v>6.879785883384445</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.903341569752678</v>
+        <v>-4.776716291899581</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.028027788487647</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.58557911343301</v>
+        <v>-20.59735673097541</v>
       </c>
       <c r="F55" t="n">
-        <v>6.851170526192392</v>
+        <v>6.801679109678612</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.190820062534145</v>
+        <v>-5.067905540893036</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.092962845334257</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.03404535976947</v>
+        <v>-20.05230091141053</v>
       </c>
       <c r="F56" t="n">
-        <v>6.706798153412393</v>
+        <v>6.649327877691809</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.268056593017667</v>
+        <v>-5.131614189375804</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.170429496998619</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.77302128314488</v>
+        <v>-19.81000173108622</v>
       </c>
       <c r="F57" t="n">
-        <v>6.736899768691988</v>
+        <v>6.677752563616052</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.486585421955031</v>
+        <v>-5.366237628919053</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.261930046248969</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.37018667333856</v>
+        <v>-19.38728841935902</v>
       </c>
       <c r="F58" t="n">
-        <v>6.390943864775353</v>
+        <v>6.322404877508072</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.809528770549098</v>
+        <v>-5.679696304191304</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.365721617315728</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.77871951158605</v>
+        <v>-18.79938045460564</v>
       </c>
       <c r="F59" t="n">
-        <v>6.595118569551455</v>
+        <v>6.545944938484024</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.67323792612011</v>
+        <v>-5.544686379561448</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.481362371909916</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.22522526616888</v>
+        <v>-18.25973187663556</v>
       </c>
       <c r="F60" t="n">
-        <v>6.433468446503779</v>
+        <v>6.377606654042409</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.980922684282535</v>
+        <v>-5.849819076139344</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.607323649061786</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.96659191390221</v>
+        <v>-17.99510949095692</v>
       </c>
       <c r="F61" t="n">
-        <v>6.136319498139556</v>
+        <v>6.081958630786328</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.018191583629028</v>
+        <v>-5.878253540077321</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.739345175236227</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.66826960388993</v>
+        <v>-17.6927146382245</v>
       </c>
       <c r="F62" t="n">
-        <v>6.215140066847958</v>
+        <v>6.163644157518744</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.08866172860874</v>
+        <v>-5.952835339832109</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.876307780312259</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.12403024847182</v>
+        <v>-17.14185556750859</v>
       </c>
       <c r="F63" t="n">
-        <v>6.057596709568491</v>
+        <v>6.000732670699404</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.948308119473346</v>
+        <v>-5.814637782725024</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.011842489856047</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.1563368058484</v>
+        <v>-17.18161786035721</v>
       </c>
       <c r="F64" t="n">
-        <v>5.904815244977399</v>
+        <v>5.838197637408816</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.185708514917001</v>
+        <v>-6.025754877252145</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.144094097489596</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.79594366465376</v>
+        <v>-16.82727242065695</v>
       </c>
       <c r="F65" t="n">
-        <v>5.978957034114164</v>
+        <v>5.921149416919762</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.092279593690257</v>
+        <v>-5.938016760018489</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.268102091390519</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.72602108844314</v>
+        <v>-16.76551937492095</v>
       </c>
       <c r="F66" t="n">
-        <v>5.982125110563925</v>
+        <v>5.917487550776443</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.190230846268898</v>
+        <v>-6.044435772490627</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.382865845625923</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.5558543154333</v>
+        <v>-16.5991806942879</v>
       </c>
       <c r="F67" t="n">
-        <v>5.746866100127978</v>
+        <v>5.699364509409032</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.128081790976675</v>
+        <v>-5.979499983284263</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.488595540546909</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.31201998695279</v>
+        <v>-16.34085534945385</v>
       </c>
       <c r="F68" t="n">
-        <v>5.623462677800178</v>
+        <v>5.579094940482925</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.253519040161112</v>
+        <v>-6.111992069377658</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.586869237926329</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.24059159662716</v>
+        <v>-16.25275055670518</v>
       </c>
       <c r="F69" t="n">
-        <v>5.767028364447135</v>
+        <v>5.727182958481778</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.882277192728792</v>
+        <v>-5.749697104511792</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.683389454919927</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.02927405281849</v>
+        <v>-16.05189059858484</v>
       </c>
       <c r="F70" t="n">
-        <v>5.716476033443235</v>
+        <v>5.666197486823881</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.775139496247218</v>
+        <v>-5.643092309778712</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.779161002504632</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.09327115270641</v>
+        <v>-16.11654771439979</v>
       </c>
       <c r="F71" t="n">
-        <v>5.523164701925418</v>
+        <v>5.487333170597798</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.510971788207202</v>
+        <v>-5.36803189443921</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.88073799186366</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.03568354082102</v>
+        <v>-16.05522979027495</v>
       </c>
       <c r="F72" t="n">
-        <v>5.496617394638069</v>
+        <v>5.45286078317918</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.493786929069996</v>
+        <v>-5.336502689154476</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.987795606926839</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.99621947739128</v>
+        <v>-16.02499617180994</v>
       </c>
       <c r="F73" t="n">
-        <v>5.548387088351832</v>
+        <v>5.511220858149544</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.532708312737507</v>
+        <v>-5.394848097104239</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.102084808079336</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.15457929881752</v>
+        <v>-16.18877301284473</v>
       </c>
       <c r="F74" t="n">
-        <v>5.479227197212452</v>
+        <v>5.466295774049462</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.166751481728322</v>
+        <v>-5.026520097764601</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.219818289025009</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.42301999885922</v>
+        <v>-16.46113958540056</v>
       </c>
       <c r="F75" t="n">
-        <v>5.323409659357006</v>
+        <v>5.293430269249084</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.179751350987448</v>
+        <v>-5.041871579326713</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.337854895497769</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.48398591448965</v>
+        <v>-16.51985655787221</v>
       </c>
       <c r="F76" t="n">
-        <v>5.233241705710494</v>
+        <v>5.199610227472986</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.972887692434544</v>
+        <v>-4.814948325598856</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.451117136587672</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.64986991748408</v>
+        <v>-16.68463075630784</v>
       </c>
       <c r="F77" t="n">
-        <v>5.230005183164597</v>
+        <v>5.186703249344331</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.696468133186039</v>
+        <v>-4.54827744604298</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.551196535113119</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.05096404084578</v>
+        <v>-17.10751518327539</v>
       </c>
       <c r="F78" t="n">
-        <v>5.066409235383889</v>
+        <v>5.030787931351546</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.204448260113453</v>
+        <v>-4.049544966542119</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.63300160326465</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.20356950118966</v>
+        <v>-17.27284672849385</v>
       </c>
       <c r="F79" t="n">
-        <v>5.194271431974316</v>
+        <v>5.157222537936834</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.998078391254106</v>
+        <v>-3.853710907480974</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.687160474235892</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.59199620775919</v>
+        <v>-17.65113852382826</v>
       </c>
       <c r="F80" t="n">
-        <v>4.973288321589759</v>
+        <v>4.908953880228026</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.599766112799678</v>
+        <v>-3.458072915782749</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.709943325982188</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.45553660165551</v>
+        <v>-18.49811496245947</v>
       </c>
       <c r="F81" t="n">
-        <v>4.95156157507319</v>
+        <v>4.90300395887099</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.36200393084787</v>
+        <v>-3.233183488911528</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.696359626605593</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.21526871274662</v>
+        <v>-19.28048806435127</v>
       </c>
       <c r="F82" t="n">
-        <v>4.795832039341348</v>
+        <v>4.74139294787825</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.221557430582004</v>
+        <v>-3.091959636553823</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.648560721717301</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.86694399406518</v>
+        <v>-19.93212912262176</v>
       </c>
       <c r="F83" t="n">
-        <v>4.535976435357951</v>
+        <v>4.461712421049513</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.081423826755621</v>
+        <v>-2.936943895824551</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.567871374048413</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.05002009876933</v>
+        <v>-21.12451389640052</v>
       </c>
       <c r="F84" t="n">
-        <v>4.34519272039033</v>
+        <v>4.287101540797646</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.647534245330653</v>
+        <v>-2.514572814578035</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.459536380128598</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.9434616586637</v>
+        <v>-22.0411977949402</v>
       </c>
       <c r="F85" t="n">
-        <v>4.444801346296854</v>
+        <v>4.374448537481948</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.676496722010258</v>
+        <v>-2.554995123353687</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.329185841481157</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.81003812582438</v>
+        <v>-22.89231522238769</v>
       </c>
       <c r="F86" t="n">
-        <v>4.120327738553443</v>
+        <v>4.045506377462177</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.493080740391076</v>
+        <v>-2.386187494252848</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.181187431221371</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.5744685725146</v>
+        <v>-23.65951773597145</v>
       </c>
       <c r="F87" t="n">
-        <v>3.948127138686965</v>
+        <v>3.85935744100439</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.439267441806944</v>
+        <v>-2.317985848459385</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.023332096590558</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.83989510888506</v>
+        <v>-24.93093330575389</v>
       </c>
       <c r="F88" t="n">
-        <v>4.06939895402079</v>
+        <v>3.989551693870335</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.374923222431476</v>
+        <v>-2.2362367646377</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-4.859832149889231</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.19823722076124</v>
+        <v>-26.29573379570126</v>
       </c>
       <c r="F89" t="n">
-        <v>3.578239546156781</v>
+        <v>3.493816175578893</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.356437887467671</v>
+        <v>-2.232271780068632</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.699181200308498</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.53727997803028</v>
+        <v>-27.6394968891003</v>
       </c>
       <c r="F90" t="n">
-        <v>3.675804567192935</v>
+        <v>3.590980298051961</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.405352401171155</v>
+        <v>-2.272170965109525</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.54410731464198</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.26207515511264</v>
+        <v>-29.38567413771511</v>
       </c>
       <c r="F91" t="n">
-        <v>3.265832007360916</v>
+        <v>3.178851686191631</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.687164534993866</v>
+        <v>-2.571779083927806</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.402269420947316</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.93163677711602</v>
+        <v>-31.03956649271004</v>
       </c>
       <c r="F92" t="n">
-        <v>2.984919450801716</v>
+        <v>2.892135878481404</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.864870156592491</v>
+        <v>-2.729845564942034</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.278012939382168</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.54477192636491</v>
+        <v>-32.65722397331082</v>
       </c>
       <c r="F93" t="n">
-        <v>2.6971085055533</v>
+        <v>2.597103870090555</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.273004449842551</v>
+        <v>-3.129487653264262</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.175258951830867</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.50936311225571</v>
+        <v>-34.60585744078801</v>
       </c>
       <c r="F94" t="n">
-        <v>2.169105541940219</v>
+        <v>2.095716659860959</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.204416572506601</v>
+        <v>-3.072457388161699</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.099554199303237</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.73514460100458</v>
+        <v>-36.83435721735488</v>
       </c>
       <c r="F95" t="n">
-        <v>1.72639130312047</v>
+        <v>1.634399749912599</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.379482130397091</v>
+        <v>-3.258532989516482</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.054352562494672</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.57844686003752</v>
+        <v>-38.68867196435555</v>
       </c>
       <c r="F96" t="n">
-        <v>1.531036366732283</v>
+        <v>1.444178270734672</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.670241146786257</v>
+        <v>-3.552738755746823</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.041290632318008</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.63675052955335</v>
+        <v>-40.73891610605127</v>
       </c>
       <c r="F97" t="n">
-        <v>1.080362824733196</v>
+        <v>0.9972839310437102</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.056565580403009</v>
+        <v>-3.97452315616931</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.065845604836781</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.44232921160118</v>
+        <v>-42.55320699833594</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6696715808917395</v>
+        <v>0.5963707009360837</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.336250996238613</v>
+        <v>-4.235151223237678</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.123043983083421</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.94168241309857</v>
+        <v>-45.04413644100164</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4912423862768116</v>
+        <v>0.4341632311055796</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.559649276015424</v>
+        <v>-4.468527966029863</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.22714105345951</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.54731284586896</v>
+        <v>-47.65318062281685</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3488063296239824</v>
+        <v>-0.4212369663573274</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.892307081254051</v>
+        <v>-4.826931281429665</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.356272066603833</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.36454936479095</v>
+        <v>-49.48457326112199</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4035925405746314</v>
+        <v>-0.4779152229654724</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.281364469709409</v>
+        <v>-5.218394061263544</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.550702832284633</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.62207761963013</v>
+        <v>-51.74926757777635</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.8064027053466208</v>
+        <v>-0.8640049842526127</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.561695234451445</v>
+        <v>-5.519537328238037</v>
       </c>
     </row>
   </sheetData>
